--- a/uploads/Phish_Report.xlsx
+++ b/uploads/Phish_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarun Akash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9460CF1A-ED12-47B2-8EEF-CF7BD6E690D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14609AF-072E-44CF-9AA8-BD6AFFC21350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
   <si>
     <t>Employee Name</t>
   </si>
@@ -31,316 +31,319 @@
     <t>Ayaan</t>
   </si>
   <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Clicked Link</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Zayd</t>
+  </si>
+  <si>
+    <t>Submitted Details</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Reported</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Sahil</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Anaya</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>Kiara</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Leela</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Isha</t>
+  </si>
+  <si>
+    <t>Nia</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Rhea</t>
+  </si>
+  <si>
+    <t>Sana</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Saanvi</t>
+  </si>
+  <si>
+    <t>Freya</t>
+  </si>
+  <si>
+    <t>Aanya</t>
+  </si>
+  <si>
+    <t>Arya</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Skyler</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>Juno</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Neo</t>
+  </si>
+  <si>
+    <t>Astrid</t>
+  </si>
+  <si>
+    <t>Blaze</t>
+  </si>
+  <si>
+    <t>Tanvi</t>
+  </si>
+  <si>
+    <t>Pranav</t>
+  </si>
+  <si>
+    <t>Ishaan</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>Kavya</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Nandini</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Isla</t>
+  </si>
+  <si>
+    <t>Elio</t>
+  </si>
+  <si>
+    <t>Amélie</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Bianca</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Soren</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Ember</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>Poet</t>
+  </si>
+  <si>
+    <t>Zenith</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Opened</t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Clicked Link</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>Zayd</t>
-  </si>
-  <si>
-    <t>Submitted Details</t>
-  </si>
-  <si>
-    <t>Neil</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Karan</t>
-  </si>
-  <si>
-    <t>Reported</t>
-  </si>
-  <si>
-    <t>Aditya</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Sahil</t>
-  </si>
-  <si>
-    <t>Elijah</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Nikhil</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>Anaya</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Meera</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Aisha</t>
-  </si>
-  <si>
-    <t>Kiara</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
-    <t>Tara</t>
-  </si>
-  <si>
-    <t>Leela</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>Isha</t>
-  </si>
-  <si>
-    <t>Nia</t>
-  </si>
-  <si>
-    <t>Ava</t>
-  </si>
-  <si>
-    <t>Rhea</t>
-  </si>
-  <si>
-    <t>Sana</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>Saanvi</t>
-  </si>
-  <si>
-    <t>Freya</t>
-  </si>
-  <si>
-    <t>Aanya</t>
-  </si>
-  <si>
-    <t>Arya</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Riley</t>
-  </si>
-  <si>
-    <t>Casey</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>Skyler</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Catherine</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Zephyr</t>
-  </si>
-  <si>
-    <t>Nova</t>
-  </si>
-  <si>
-    <t>Orion</t>
-  </si>
-  <si>
-    <t>Lux</t>
-  </si>
-  <si>
-    <t>Juno</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Echo</t>
-  </si>
-  <si>
-    <t>Neo</t>
-  </si>
-  <si>
-    <t>Astrid</t>
-  </si>
-  <si>
-    <t>Blaze</t>
-  </si>
-  <si>
-    <t>Tanvi</t>
-  </si>
-  <si>
-    <t>Pranav</t>
-  </si>
-  <si>
-    <t>Ishaan</t>
-  </si>
-  <si>
-    <t>Divya</t>
-  </si>
-  <si>
-    <t>Krish</t>
-  </si>
-  <si>
-    <t>Kavya</t>
-  </si>
-  <si>
-    <t>Anirudh</t>
-  </si>
-  <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t>Harsh</t>
-  </si>
-  <si>
-    <t>Nandini</t>
-  </si>
-  <si>
-    <t>Matteo</t>
-  </si>
-  <si>
-    <t>Isla</t>
-  </si>
-  <si>
-    <t>Elio</t>
-  </si>
-  <si>
-    <t>Amélie</t>
-  </si>
-  <si>
-    <t>Sven</t>
-  </si>
-  <si>
-    <t>Bianca</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Soren</t>
-  </si>
-  <si>
-    <t>Indigo</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Storm</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Ember</t>
-  </si>
-  <si>
-    <t>Onyx</t>
-  </si>
-  <si>
-    <t>Cypress</t>
-  </si>
-  <si>
-    <t>Sol</t>
-  </si>
-  <si>
-    <t>Poet</t>
-  </si>
-  <si>
-    <t>Zenith</t>
+    <t>Tarun</t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,15 @@
   <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -631,803 +639,808 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
+      <c r="A102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>

--- a/uploads/Phish_Report.xlsx
+++ b/uploads/Phish_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarun Akash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14609AF-072E-44CF-9AA8-BD6AFFC21350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C25770-71DA-4316-925B-0A0B7B358FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="207">
   <si>
     <t>Employee Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Ethan</t>
   </si>
   <si>
-    <t>Opened</t>
-  </si>
-  <si>
     <t>Arjun</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>Zayd</t>
   </si>
   <si>
-    <t>Submitted Details</t>
-  </si>
-  <si>
     <t>Neil</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>Karan</t>
   </si>
   <si>
-    <t>Reported</t>
-  </si>
-  <si>
     <t>Aditya</t>
   </si>
   <si>
@@ -340,17 +331,323 @@
     <t>Zenith</t>
   </si>
   <si>
-    <t>Ignored</t>
-  </si>
-  <si>
-    <t>Tarun</t>
+    <t>ayaan@example.com</t>
+  </si>
+  <si>
+    <t>ethan@example.com</t>
+  </si>
+  <si>
+    <t>arjun@example.com</t>
+  </si>
+  <si>
+    <t>lucas@example.com</t>
+  </si>
+  <si>
+    <t>rohan@example.com</t>
+  </si>
+  <si>
+    <t>zayd@example.com</t>
+  </si>
+  <si>
+    <t>neil@example.com</t>
+  </si>
+  <si>
+    <t>omar@example.com</t>
+  </si>
+  <si>
+    <t>ryan@example.com</t>
+  </si>
+  <si>
+    <t>leo@example.com</t>
+  </si>
+  <si>
+    <t>karan@example.com</t>
+  </si>
+  <si>
+    <t>aditya@example.com</t>
+  </si>
+  <si>
+    <t>julian@example.com</t>
+  </si>
+  <si>
+    <t>nathan@example.com</t>
+  </si>
+  <si>
+    <t>sahil@example.com</t>
+  </si>
+  <si>
+    <t>elijah@example.com</t>
+  </si>
+  <si>
+    <t>raj@example.com</t>
+  </si>
+  <si>
+    <t>marcus@example.com</t>
+  </si>
+  <si>
+    <t>nikhil@example.com</t>
+  </si>
+  <si>
+    <t>xavier@example.com</t>
+  </si>
+  <si>
+    <t>anaya@example.com</t>
+  </si>
+  <si>
+    <t>zoe@example.com</t>
+  </si>
+  <si>
+    <t>meera@example.com</t>
+  </si>
+  <si>
+    <t>emma@example.com</t>
+  </si>
+  <si>
+    <t>aisha@example.com</t>
+  </si>
+  <si>
+    <t>kiara@example.com</t>
+  </si>
+  <si>
+    <t>maya@example.com</t>
+  </si>
+  <si>
+    <t>sophia@example.com</t>
+  </si>
+  <si>
+    <t>tara@example.com</t>
+  </si>
+  <si>
+    <t>leela@example.com</t>
+  </si>
+  <si>
+    <t>chloe@example.com</t>
+  </si>
+  <si>
+    <t>isha@example.com</t>
+  </si>
+  <si>
+    <t>nia@example.com</t>
+  </si>
+  <si>
+    <t>ava@example.com</t>
+  </si>
+  <si>
+    <t>rhea@example.com</t>
+  </si>
+  <si>
+    <t>sana@example.com</t>
+  </si>
+  <si>
+    <t>lily@example.com</t>
+  </si>
+  <si>
+    <t>saanvi@example.com</t>
+  </si>
+  <si>
+    <t>freya@example.com</t>
+  </si>
+  <si>
+    <t>aanya@example.com</t>
+  </si>
+  <si>
+    <t>arya@example.com</t>
+  </si>
+  <si>
+    <t>jordan@example.com</t>
+  </si>
+  <si>
+    <t>riley@example.com</t>
+  </si>
+  <si>
+    <t>casey@example.com</t>
+  </si>
+  <si>
+    <t>taylor@example.com</t>
+  </si>
+  <si>
+    <t>morgan@example.com</t>
+  </si>
+  <si>
+    <t>sam@example.com</t>
+  </si>
+  <si>
+    <t>alex@example.com</t>
+  </si>
+  <si>
+    <t>quinn@example.com</t>
+  </si>
+  <si>
+    <t>skyler@example.com</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>mary@example.com</t>
+  </si>
+  <si>
+    <t>james@example.com</t>
+  </si>
+  <si>
+    <t>elizabeth@example.com</t>
+  </si>
+  <si>
+    <t>charles@example.com</t>
+  </si>
+  <si>
+    <t>catherine@example.com</t>
+  </si>
+  <si>
+    <t>henry@example.com</t>
+  </si>
+  <si>
+    <t>alice@example.com</t>
+  </si>
+  <si>
+    <t>george@example.com</t>
+  </si>
+  <si>
+    <t>grace@example.com</t>
+  </si>
+  <si>
+    <t>zephyr@example.com</t>
+  </si>
+  <si>
+    <t>nova@example.com</t>
+  </si>
+  <si>
+    <t>orion@example.com</t>
+  </si>
+  <si>
+    <t>lux@example.com</t>
+  </si>
+  <si>
+    <t>juno@example.com</t>
+  </si>
+  <si>
+    <t>phoenix@example.com</t>
+  </si>
+  <si>
+    <t>echo@example.com</t>
+  </si>
+  <si>
+    <t>neo@example.com</t>
+  </si>
+  <si>
+    <t>astrid@example.com</t>
+  </si>
+  <si>
+    <t>blaze@example.com</t>
+  </si>
+  <si>
+    <t>tanvi@example.com</t>
+  </si>
+  <si>
+    <t>pranav@example.com</t>
+  </si>
+  <si>
+    <t>ishaan@example.com</t>
+  </si>
+  <si>
+    <t>divya@example.com</t>
+  </si>
+  <si>
+    <t>krish@example.com</t>
+  </si>
+  <si>
+    <t>kavya@example.com</t>
+  </si>
+  <si>
+    <t>anirudh@example.com</t>
+  </si>
+  <si>
+    <t>sneha@example.com</t>
+  </si>
+  <si>
+    <t>harsh@example.com</t>
+  </si>
+  <si>
+    <t>nandini@example.com</t>
+  </si>
+  <si>
+    <t>matteo@example.com</t>
+  </si>
+  <si>
+    <t>isla@example.com</t>
+  </si>
+  <si>
+    <t>elio@example.com</t>
+  </si>
+  <si>
+    <t>amelie@example.com</t>
+  </si>
+  <si>
+    <t>sven@example.com</t>
+  </si>
+  <si>
+    <t>bianca@example.com</t>
+  </si>
+  <si>
+    <t>hugo@example.com</t>
+  </si>
+  <si>
+    <t>clara@example.com</t>
+  </si>
+  <si>
+    <t>luca@example.com</t>
+  </si>
+  <si>
+    <t>soren@example.com</t>
+  </si>
+  <si>
+    <t>indigo@example.com</t>
+  </si>
+  <si>
+    <t>river@example.com</t>
+  </si>
+  <si>
+    <t>storm@example.com</t>
+  </si>
+  <si>
+    <t>ocean@example.com</t>
+  </si>
+  <si>
+    <t>ember@example.com</t>
+  </si>
+  <si>
+    <t>onyx@example.com</t>
+  </si>
+  <si>
+    <t>cypress@example.com</t>
+  </si>
+  <si>
+    <t>sol@example.com</t>
+  </si>
+  <si>
+    <t>poet@example.com</t>
+  </si>
+  <si>
+    <t>zenith@example.com</t>
+  </si>
+  <si>
+    <t>OFFICE_EMAIL_ADDRESS</t>
+  </si>
+  <si>
+    <t>Email Opened</t>
+  </si>
+  <si>
+    <t>Submitted Data</t>
+  </si>
+  <si>
+    <t>Email Sent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -368,6 +665,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -391,10 +696,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,849 +919,1148 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B67" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B68" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B69" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B71" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="B72" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B74" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B78" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B79" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="B80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B81" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="B82" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="B83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="B84" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B85" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="B86" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="B88" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="B89" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="B90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="B91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="B92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="B98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="B99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="B100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="B101" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C107" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
